--- a/data_year/zb/科技/按行业分研究与试验发展人员全时当量.xlsx
+++ b/data_year/zb/科技/按行业分研究与试验发展人员全时当量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS2"/>
+  <dimension ref="B1:BS1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,223 +785,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4991</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3094</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4711</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1376</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.3188</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.7163</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.1741</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.2196</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.1263</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0696</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.0855</v>
-      </c>
-      <c r="S2" t="n">
-        <v>135.5658</v>
-      </c>
-      <c r="T2" t="n">
-        <v>57.0294</v>
-      </c>
-      <c r="U2" t="n">
-        <v>134.4126</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.93903</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.01594</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9.9068</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5.92541</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.95613</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.2869</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.3432</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.9104</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6.0506</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10.08144</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.99568</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>24.13497</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20.07741</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.05767</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.0393</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0267</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.0574</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0401</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.0436</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.2273</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.1013</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.1097</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.5544</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.2243</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.4561</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>4.2282</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>11.2965</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>32.6812</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>19.5105</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>17.1565</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.0514</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1.9659</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.5152</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1.9128</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.3652</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>7.5624</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>4.3891</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>7.1781</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.0397</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.0387</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
